--- a/Federated Electric Market/result_excel/train_loss/frac/frac=0.1.xlsx
+++ b/Federated Electric Market/result_excel/train_loss/frac/frac=0.1.xlsx
@@ -455,13 +455,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.008188401994387579</v>
+        <v>0.01429296731055534</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0594745730079012</v>
+        <v>0.07785435549272238</v>
       </c>
       <c r="D2" t="n">
-        <v>0.07769858065696782</v>
+        <v>0.09927108328949262</v>
       </c>
     </row>
     <row r="3">
@@ -469,13 +469,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.004025702448628483</v>
+        <v>0.007482794405055013</v>
       </c>
       <c r="C3" t="n">
-        <v>0.04192002544645219</v>
+        <v>0.05957733082768662</v>
       </c>
       <c r="D3" t="n">
-        <v>0.05729285245045213</v>
+        <v>0.07866157914174145</v>
       </c>
     </row>
     <row r="4">
@@ -483,13 +483,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.007175331095451205</v>
+        <v>0.006809375474366941</v>
       </c>
       <c r="C4" t="n">
-        <v>0.06435553435884092</v>
+        <v>0.05668931349737345</v>
       </c>
       <c r="D4" t="n">
-        <v>0.08171159200467516</v>
+        <v>0.07502143448623881</v>
       </c>
     </row>
     <row r="5">
@@ -497,13 +497,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.01807799596844756</v>
+        <v>0.00645490407470388</v>
       </c>
       <c r="C5" t="n">
-        <v>0.09976442938710148</v>
+        <v>0.05355400717100649</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1296351174146667</v>
+        <v>0.07197807620488002</v>
       </c>
     </row>
     <row r="6">
@@ -511,13 +511,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.01203128352911638</v>
+        <v>0.007546864651635636</v>
       </c>
       <c r="C6" t="n">
-        <v>0.07437877449905499</v>
+        <v>0.06104724513846469</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1025697062944482</v>
+        <v>0.07986694938079554</v>
       </c>
     </row>
     <row r="7">
@@ -525,13 +525,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.002897693531122059</v>
+        <v>0.006637902264793103</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02853235316555947</v>
+        <v>0.05861148795624466</v>
       </c>
       <c r="D7" t="n">
-        <v>0.04147960244894944</v>
+        <v>0.07566981157168153</v>
       </c>
     </row>
     <row r="8">
@@ -539,13 +539,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.006570315804613832</v>
+        <v>0.005558930139177827</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05330967436855039</v>
+        <v>0.05152855375222584</v>
       </c>
       <c r="D8" t="n">
-        <v>0.07301495595539488</v>
+        <v>0.06867416664107126</v>
       </c>
     </row>
     <row r="9">
@@ -553,13 +553,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.002911979526509233</v>
+        <v>0.008497008763887993</v>
       </c>
       <c r="C9" t="n">
-        <v>0.03871499653984892</v>
+        <v>0.06399613568836175</v>
       </c>
       <c r="D9" t="n">
-        <v>0.05104644078293456</v>
+        <v>0.08452983515063717</v>
       </c>
     </row>
     <row r="10">
@@ -567,13 +567,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.005986612379274446</v>
+        <v>0.006019839596985432</v>
       </c>
       <c r="C10" t="n">
-        <v>0.04815183598625784</v>
+        <v>0.05389251867142863</v>
       </c>
       <c r="D10" t="n">
-        <v>0.06821161669704737</v>
+        <v>0.07121807829102821</v>
       </c>
     </row>
     <row r="11">
@@ -581,13 +581,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.008305892403708034</v>
+        <v>0.007301810212155921</v>
       </c>
       <c r="C11" t="n">
-        <v>0.06734554391354322</v>
+        <v>0.06084481987676291</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0869671531991536</v>
+        <v>0.07937503642197836</v>
       </c>
     </row>
   </sheetData>
